--- a/data/trans_dic/P04D$aparatos-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P04D$aparatos-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>70,76; 76,48</t>
+          <t>70,61; 76,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,36; 64,7</t>
+          <t>57,62; 64,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66,59; 74,24</t>
+          <t>66,61; 73,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>69,79; 74,69</t>
+          <t>69,97; 74,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,59; 59,89</t>
+          <t>53,7; 60,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>72,96; 77,65</t>
+          <t>72,71; 77,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,88; 74,74</t>
+          <t>71,05; 74,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>56,26; 61,18</t>
+          <t>56,53; 61,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>71,12; 75,49</t>
+          <t>71,52; 75,58</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,13; 63,53</t>
+          <t>59,35; 63,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,44; 53,89</t>
+          <t>49,37; 53,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,85; 66,88</t>
+          <t>40,48; 66,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,02; 64,6</t>
+          <t>59,92; 64,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,71; 54,24</t>
+          <t>49,82; 54,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,45; 76,68</t>
+          <t>62,27; 76,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>60,31; 63,45</t>
+          <t>60,34; 63,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,3; 53,41</t>
+          <t>50,25; 53,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,48; 69,13</t>
+          <t>53,77; 69,15</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,04; 53,38</t>
+          <t>43,47; 53,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,25; 51,5</t>
+          <t>41,79; 50,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>49,07; 57,64</t>
+          <t>48,31; 56,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,23; 58,05</t>
+          <t>48,24; 58,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,54; 49,22</t>
+          <t>40,83; 49,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>45,59; 52,63</t>
+          <t>45,52; 52,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,24; 54,17</t>
+          <t>47,2; 54,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,55; 48,9</t>
+          <t>42,92; 48,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,41; 53,92</t>
+          <t>48,64; 53,9</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,43; 64,97</t>
+          <t>61,55; 64,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,18; 54,74</t>
+          <t>51,02; 54,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,15; 64,88</t>
+          <t>43,8; 64,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>63,34; 66,67</t>
+          <t>63,24; 66,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,67; 53,91</t>
+          <t>50,55; 53,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,83; 72,54</t>
+          <t>63,13; 72,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,95; 65,33</t>
+          <t>62,83; 65,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,32; 53,89</t>
+          <t>51,27; 53,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>56,43; 66,68</t>
+          <t>55,1; 66,48</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene aparatos de calefacción en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1566</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1584</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>716459</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>459887</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>362680</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>969864</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>568321</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>568757</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1686322</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1028208</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>931437</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>686792; 743754</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>434647; 488439</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>341667; 379545</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>935990; 1002538</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>534124; 601799</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>548905; 586267</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1641583; 1731488</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>988801; 1075032</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>906742; 958219</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1143</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2152</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3292</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1206290</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1073156</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1348107</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1093777</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1033375</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1527553</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2300067</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2106531</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2875660</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1162627; 1252836</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1025074; 1115790</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>925585; 1529108</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1050780; 1137008</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>990658; 1081348</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1390340; 1697777</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2239888; 2357681</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2042378; 2164216</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2429843; 3124718</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>234167</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>255739</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>343848</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>244329</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>246183</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>325267</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>478497</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>501922</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>669115</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>209186; 256384</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>228553; 278646</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>312395; 368398</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>221264; 268555</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>224205; 272039</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>299641; 347254</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>443611; 509132</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>470458; 535387</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>634675; 703346</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1730</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2197</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2129</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1753</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3539</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4148</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5736</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2156916</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1788781</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2054635</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2307970</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1847879</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2421577</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4464886</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3636660</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4476212</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2100456; 2215281</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1723097; 1845872</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1509406; 2231546</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2245067; 2364997</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1785590; 1906330</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2301579; 2635380</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4374508; 4541021</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3542702; 3717110</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3907865; 4714883</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>